--- a/storage/app/download/smt_pdplanimport.xlsx
+++ b/storage/app/download/smt_pdplanimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2B2D8-86B8-45AA-90FD-FE13CB0E4691}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C23745-13E1-4AD1-8A50-BDE265AD2BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{729136A9-0580-46F2-92C0-79F7EAD6C668}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>机种名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>d1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,8 +690,8 @@
   <dimension ref="A1:BQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1041,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -1067,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>71</v>
@@ -1093,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>71</v>
@@ -1119,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -1145,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>71</v>
